--- a/materio-mui-nextjs-admin-template-free/javascript-version/src/data/data.xlsx
+++ b/materio-mui-nextjs-admin-template-free/javascript-version/src/data/data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P92"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -448,9 +448,6 @@
       <c r="O1" t="str">
         <v>日期</v>
       </c>
-      <c r="P1" t="str">
-        <v>收支</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -4604,6 +4601,9 @@
       <c r="H90" t="str">
         <v>旅游</v>
       </c>
+      <c r="I90" t="str">
+        <v>11222</v>
+      </c>
       <c r="L90" t="str">
         <v>11222</v>
       </c>
@@ -4612,9 +4612,6 @@
       </c>
       <c r="N90" t="str">
         <v>1</v>
-      </c>
-      <c r="P90" t="str">
-        <v>支出</v>
       </c>
     </row>
     <row r="91">
@@ -4633,6 +4630,9 @@
       <c r="H91" t="str">
         <v>罚款</v>
       </c>
+      <c r="I91" t="str">
+        <v>1000</v>
+      </c>
       <c r="L91" t="str">
         <v>1000</v>
       </c>
@@ -4641,9 +4641,6 @@
       </c>
       <c r="N91" t="str">
         <v/>
-      </c>
-      <c r="P91" t="str">
-        <v>支出</v>
       </c>
     </row>
     <row r="92">
@@ -4662,6 +4659,9 @@
       <c r="H92" t="str">
         <v/>
       </c>
+      <c r="I92" t="str">
+        <v>150</v>
+      </c>
       <c r="L92" t="str">
         <v>150</v>
       </c>
@@ -4671,13 +4671,283 @@
       <c r="N92" t="str">
         <v/>
       </c>
-      <c r="P92" t="str">
-        <v>支出</v>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>2025-10-29T12:14:30.637Z</v>
+      </c>
+      <c r="C93" t="str">
+        <v>银行卡</v>
+      </c>
+      <c r="F93" t="str">
+        <v>其他</v>
+      </c>
+      <c r="G93" t="str">
+        <v>公司xxx</v>
+      </c>
+      <c r="H93" t="str">
+        <v/>
+      </c>
+      <c r="I93" t="str">
+        <v>30000</v>
+      </c>
+      <c r="L93" t="str">
+        <v>30000</v>
+      </c>
+      <c r="M93" t="str">
+        <v>其他</v>
+      </c>
+      <c r="N93" t="str">
+        <v>工资</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>45959.89533503472</v>
+      </c>
+      <c r="C94" t="str">
+        <v>微信</v>
+      </c>
+      <c r="D94" t="str">
+        <v>支出</v>
+      </c>
+      <c r="F94" t="str">
+        <v>生活服务</v>
+      </c>
+      <c r="G94" t="str">
+        <v>健身</v>
+      </c>
+      <c r="H94" t="str">
+        <v>jj</v>
+      </c>
+      <c r="I94">
+        <v>100</v>
+      </c>
+      <c r="L94" t="str">
+        <v>-100</v>
+      </c>
+      <c r="M94" t="str">
+        <v>d健康</v>
+      </c>
+      <c r="N94" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>45959.90176681713</v>
+      </c>
+      <c r="C95" t="str">
+        <v>银行卡</v>
+      </c>
+      <c r="D95" t="str">
+        <v>支出</v>
+      </c>
+      <c r="F95" t="str">
+        <v>交通出行</v>
+      </c>
+      <c r="G95" t="str">
+        <v>11</v>
+      </c>
+      <c r="H95" t="str">
+        <v>11</v>
+      </c>
+      <c r="I95">
+        <v>11</v>
+      </c>
+      <c r="L95" t="str">
+        <v>-11</v>
+      </c>
+      <c r="M95" t="str">
+        <v>f娱乐</v>
+      </c>
+      <c r="N95" t="str">
+        <v>副业、兼职</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>45960.30291518519</v>
+      </c>
+      <c r="C96" t="str">
+        <v>现金</v>
+      </c>
+      <c r="D96" t="str">
+        <v>收入</v>
+      </c>
+      <c r="F96" t="str">
+        <v/>
+      </c>
+      <c r="G96" t="str">
+        <v>家教</v>
+      </c>
+      <c r="H96" t="str">
+        <v>补课</v>
+      </c>
+      <c r="I96" t="str">
+        <v>200</v>
+      </c>
+      <c r="L96" t="str">
+        <v>200</v>
+      </c>
+      <c r="M96" t="str">
+        <v>e学习</v>
+      </c>
+      <c r="N96" t="str">
+        <v>副业、兼职</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>45960.30333642361</v>
+      </c>
+      <c r="C97" t="str">
+        <v>银行卡</v>
+      </c>
+      <c r="D97" t="str">
+        <v>支出</v>
+      </c>
+      <c r="F97" t="str">
+        <v/>
+      </c>
+      <c r="G97" t="str">
+        <v>健身房</v>
+      </c>
+      <c r="H97" t="str">
+        <v>健身</v>
+      </c>
+      <c r="I97">
+        <v>150</v>
+      </c>
+      <c r="L97" t="str">
+        <v>-150</v>
+      </c>
+      <c r="M97" t="str">
+        <v>c起居</v>
+      </c>
+      <c r="N97" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>45960.30863775463</v>
+      </c>
+      <c r="C98" t="str">
+        <v>银行卡</v>
+      </c>
+      <c r="D98" t="str">
+        <v>支出</v>
+      </c>
+      <c r="F98" t="str">
+        <v/>
+      </c>
+      <c r="G98" t="str">
+        <v>老阿妈</v>
+      </c>
+      <c r="H98" t="str">
+        <v>测试</v>
+      </c>
+      <c r="I98" t="str">
+        <v>1000</v>
+      </c>
+      <c r="M98" t="str">
+        <v>h社交</v>
+      </c>
+      <c r="N98" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>45960.31379532407</v>
+      </c>
+      <c r="C99" t="str">
+        <v>微信</v>
+      </c>
+      <c r="D99" t="str">
+        <v>支出</v>
+      </c>
+      <c r="F99" t="str">
+        <v/>
+      </c>
+      <c r="G99" t="str">
+        <v>dan</v>
+      </c>
+      <c r="H99" t="str">
+        <v>test</v>
+      </c>
+      <c r="I99" t="str">
+        <v>2000</v>
+      </c>
+      <c r="M99" t="str">
+        <v>f娱乐</v>
+      </c>
+      <c r="N99" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>45960.314806863425</v>
+      </c>
+      <c r="C100" t="str">
+        <v>银行卡</v>
+      </c>
+      <c r="D100" t="str">
+        <v>收入</v>
+      </c>
+      <c r="F100" t="str">
+        <v/>
+      </c>
+      <c r="G100" t="str">
+        <v>dan</v>
+      </c>
+      <c r="H100" t="str">
+        <v>test</v>
+      </c>
+      <c r="I100" t="str">
+        <v>4000</v>
+      </c>
+      <c r="M100" t="str">
+        <v/>
+      </c>
+      <c r="N100" t="str">
+        <v>奖金</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>45960.32186574074</v>
+      </c>
+      <c r="C101" t="str">
+        <v>银行 APP</v>
+      </c>
+      <c r="D101" t="str">
+        <v>支出</v>
+      </c>
+      <c r="F101" t="str">
+        <v/>
+      </c>
+      <c r="G101" t="str">
+        <v>test</v>
+      </c>
+      <c r="H101" t="str">
+        <v>tes</v>
+      </c>
+      <c r="I101" t="str">
+        <v>2000</v>
+      </c>
+      <c r="M101" t="str">
+        <v>f娱乐</v>
+      </c>
+      <c r="N101" t="str">
+        <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P92"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:O101"/>
   </ignoredErrors>
 </worksheet>
 </file>